--- a/servidor/plantillasVacias/Periodo Vacaciones.xlsx
+++ b/servidor/plantillasVacias/Periodo Vacaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF5F7F-B89E-4053-828C-9294E85FF142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A30DEA-071A-4C4F-8361-9583AF4B0104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97996775-D2A6-4152-8BD1-6008BB3CC131}"/>
   </bookViews>
@@ -106,12 +106,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -185,37 +186,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,104 +537,105 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/servidor/plantillasVacias/Periodo Vacaciones.xlsx
+++ b/servidor/plantillasVacias/Periodo Vacaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A30DEA-071A-4C4F-8361-9583AF4B0104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D5275-5DC2-4103-8795-9023F0A9BB49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97996775-D2A6-4152-8BD1-6008BB3CC131}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{97996775-D2A6-4152-8BD1-6008BB3CC131}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo Vacaciones" sheetId="2" r:id="rId1"/>
@@ -117,7 +117,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -207,16 +213,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,7 +543,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
